--- a/laravel/storage/app/templates/dh.xlsx
+++ b/laravel/storage/app/templates/dh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arakiryouta/Desktop/dh_2/laravel/storage/app/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5186FE-527C-8F4E-9FF6-BFA8157DC04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AFDA90-961E-A041-9E42-D4AE62282FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,14 +29,14 @@
     <rPh sb="0" eb="1">
       <t>ツキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -51,47 +51,35 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="5"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="5.5"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,15 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,9 +134,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -518,8 +500,8 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -527,7 +509,7 @@
     <row r="5" spans="2:7">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -535,7 +517,7 @@
     <row r="6" spans="2:7">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -551,7 +533,7 @@
     <row r="8" spans="2:7">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -559,22 +541,22 @@
     <row r="9" spans="2:7">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -622,7 +604,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -630,7 +612,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -678,7 +660,7 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -686,7 +668,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -734,7 +716,7 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -742,7 +724,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -765,7 +747,7 @@
       <c r="G34" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
